--- a/Framework/TestProjects/OpenAndSaveExcelTest/休假额度导入模板-2.xlsx
+++ b/Framework/TestProjects/OpenAndSaveExcelTest/休假额度导入模板-2.xlsx
@@ -42,14 +42,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E0001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>L14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>客户编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,13 +52,19 @@
   <si>
     <t>业务复杂度</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E0001</t>
+  </si>
+  <si>
+    <t>L14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,6 +79,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -105,15 +108,161 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -127,16 +276,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G2" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A1:G2" totalsRowShown="0" dataDxfId="0">
   <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="客户编号"/>
-    <tableColumn id="2" name="任务单编号"/>
-    <tableColumn id="3" name="业务复杂度"/>
-    <tableColumn id="4" name="法定假转入"/>
-    <tableColumn id="5" name="公司福利假转入"/>
-    <tableColumn id="6" name="法定假初始值"/>
-    <tableColumn id="7" name="公司福利假初始值"/>
+    <tableColumn id="1" name="客户编号" dataDxfId="7"/>
+    <tableColumn id="2" name="任务单编号" dataDxfId="6"/>
+    <tableColumn id="3" name="业务复杂度" dataDxfId="5"/>
+    <tableColumn id="4" name="法定假转入" dataDxfId="4"/>
+    <tableColumn id="5" name="公司福利假转入" dataDxfId="3"/>
+    <tableColumn id="6" name="法定假初始值" dataDxfId="2"/>
+    <tableColumn id="7" name="公司福利假初始值" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -422,13 +571,13 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" t="s">
-        <v>8</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -443,27 +592,27 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
         <v>2015</v>
       </c>
-      <c r="D2">
-        <v>5</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="1">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="E2" s="1">
         <v>10</v>
       </c>
-      <c r="G2">
-        <v>5</v>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
